--- a/data/trans_bre/P13_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P13_R-Estudios-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>4.666089840212758</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6.407145940869233</v>
+        <v>6.407145940869227</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3365183756520743</v>
@@ -649,7 +649,7 @@
         <v>0.7779507825073351</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.5604179009384509</v>
+        <v>0.5604179009384503</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.2457921554106265</v>
+        <v>-0.4345256012529256</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>5.46381657353027</v>
+        <v>5.366774393167391</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2.292400922052052</v>
+        <v>2.055807698220552</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>3.131627750316656</v>
+        <v>3.329169284600837</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.03265567821016566</v>
+        <v>-0.07077154325399156</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6247501007383036</v>
+        <v>0.6191897564894454</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2803739745675997</v>
+        <v>0.2872240294148628</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.2294060087871614</v>
+        <v>0.251135136315128</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.025459788970406</v>
+        <v>3.833625190715034</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>10.39431306871089</v>
+        <v>10.65870725325178</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7.189504039048365</v>
+        <v>7.104667262824966</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>9.679665237075886</v>
+        <v>9.519827139335835</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.9522803012446476</v>
+        <v>0.9015684089504922</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.731384563815342</v>
+        <v>1.845837139363816</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1.485368736523591</v>
+        <v>1.506065772495149</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1.035948344096161</v>
+        <v>1.025947892193764</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>0.6702173043161227</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.9091866668633292</v>
+        <v>0.9091866668633298</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4268724673518883</v>
@@ -749,7 +749,7 @@
         <v>0.2350939358507892</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.223490620725801</v>
+        <v>0.2234906207258012</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-0.1850680252503419</v>
+        <v>-0.1584075083780865</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.9590323881847196</v>
+        <v>1.002051760201019</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-0.3686940877783358</v>
+        <v>-0.5183834064481413</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-0.2439469593185843</v>
+        <v>-0.2733242421250324</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.0873352572891453</v>
+        <v>-0.07503625034141007</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2030560740097864</v>
+        <v>0.2135293865194814</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.1187678226044961</v>
+        <v>-0.1533332831253638</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.05400577699354616</v>
+        <v>-0.06389282435956185</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>2.132269561278579</v>
+        <v>2.183175768086437</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>3.977307897525819</v>
+        <v>3.998386756055554</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1.913370000266798</v>
+        <v>1.803216969322086</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>2.072868997340118</v>
+        <v>2.051615629292473</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.214640373306079</v>
+        <v>1.166044477078598</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.200085892645287</v>
+        <v>1.224035999463867</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.8520914568350172</v>
+        <v>0.7591839439299018</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.6078264572239451</v>
+        <v>0.6034500113772737</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>1.033228421527096</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-0.682876795091502</v>
+        <v>-0.6828767950915013</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.985070905952216</v>
@@ -849,7 +849,7 @@
         <v>0.4290827436802584</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.1806777395708974</v>
+        <v>-0.1806777395708972</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.0228610237419936</v>
+        <v>-0.2037135991181714</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.774768513200556</v>
+        <v>-1.570542450533852</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.942745151293213</v>
+        <v>-0.9166721386428309</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-2.4649536782329</v>
+        <v>-2.574457265405479</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.08120219053796836</v>
+        <v>-0.169550649629804</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.4706783983077175</v>
+        <v>-0.4572852478889717</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.3062840292962291</v>
+        <v>-0.3283489471952078</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.4887169266664462</v>
+        <v>-0.5103901455740467</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.144662579009182</v>
+        <v>4.150051468073401</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.303826870156611</v>
+        <v>3.297048280983249</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.267494788004865</v>
+        <v>3.325350067840199</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.034070445074774</v>
+        <v>1.084154274023412</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>3.853755395557855</v>
+        <v>3.381175075552387</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>2.089043390845188</v>
+        <v>1.873865923733787</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>2.164546733379433</v>
+        <v>2.448560738447151</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.4048679470823422</v>
+        <v>0.4654445100107716</v>
       </c>
     </row>
     <row r="13">
@@ -949,7 +949,7 @@
         <v>0.5848563325443986</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.4245249645783941</v>
+        <v>0.4245249645783939</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.7663677792226211</v>
+        <v>0.7826818611076947</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>3.305569129406603</v>
+        <v>3.362457935745971</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1.018883139964793</v>
+        <v>0.9926187218047741</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1.244067439258747</v>
+        <v>1.046663722481539</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.2106028672074863</v>
+        <v>0.2066598898305871</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6241178071315311</v>
+        <v>0.6527410512088599</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2487590698803927</v>
+        <v>0.2471479954981933</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.2071512210500689</v>
+        <v>0.170506596864959</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>2.732348887142151</v>
+        <v>2.690182069937379</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>5.81575518513193</v>
+        <v>5.892848138215752</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>3.149884861985791</v>
+        <v>3.030846838310387</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>3.310083310759993</v>
+        <v>3.19870636432015</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.9715515318481817</v>
+        <v>0.9634496529898391</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.40001383456621</v>
+        <v>1.456072462984244</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.009686881827817</v>
+        <v>1.010132621404121</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.7172502890342163</v>
+        <v>0.6774492193391805</v>
       </c>
     </row>
     <row r="16">
